--- a/biology/Botanique/Pinatelle_d'Allanche/Pinatelle_d'Allanche.xlsx
+++ b/biology/Botanique/Pinatelle_d'Allanche/Pinatelle_d'Allanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pinatelle_d%27Allanche</t>
+          <t>Pinatelle_d'Allanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Pinatelle d'Allanche est un massif forestier d'une superficie d'environ 2 700 ha situé sur les communes d'Allanche, Neussargues en Pinatelle (Chalinargues et Chavagnac) et Vernols dans le Cantal.
 Elle tire son nom de l'essence la plus couramment présente : le Pin sylvestre.
-Le cerf élaphe (Cervus elaphus) qui y a été introduit dans les années soixante[1] s'est parfaitement bien acclimaté au lieu, ce qui explique qu'aujourd'hui le massif compte une population relativement importante d'individus.
+Le cerf élaphe (Cervus elaphus) qui y a été introduit dans les années soixante s'est parfaitement bien acclimaté au lieu, ce qui explique qu'aujourd'hui le massif compte une population relativement importante d'individus.
 Au nord-ouest, se trouve le lac du Pêcher, d'origine artificielle, créé par des moines au Moyen Âge .
 Plusieurs sentiers de randonnée et autres chemins forestiers permettent de sillonner la forêt dans une ambiance de quiétude propice à la détente.
 </t>
